--- a/biology/Botanique/Butia_capitata/Butia_capitata.xlsx
+++ b/biology/Botanique/Butia_capitata/Butia_capitata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Butia capitata (Mart.) Becc. (1916), ou arbre à laque[a], est une espèce de palmiers (Arecaceae). Elle appartient à la sous-famille des Arecoideae et au genre Butia. Les palmiers cultivés dans le monde entier sous le nom de Butia capitata sont en fait presque tous des Butia odorata. Le vrai B. capitata n'est pas particulièrement rustique, ni largement cultivé [2] Son nom vient du latin caput, qui signifie la tête, ses feuilles formant une couronne globuleuse, qui, selon l’auteur, ressemble à une tête. On le connaît aussi sous les appellations  Cocos erythrospatha, Calappa capitata, Syagrus capitata…
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Butia capitata (Mart.) Becc. (1916), ou arbre à laque[a], est une espèce de palmiers (Arecaceae). Elle appartient à la sous-famille des Arecoideae et au genre Butia. Les palmiers cultivés dans le monde entier sous le nom de Butia capitata sont en fait presque tous des Butia odorata. Le vrai B. capitata n'est pas particulièrement rustique, ni largement cultivé  Son nom vient du latin caput, qui signifie la tête, ses feuilles formant une couronne globuleuse, qui, selon l’auteur, ressemble à une tête. On le connaît aussi sous les appellations  Cocos erythrospatha, Calappa capitata, Syagrus capitata…
 Il se rencontre sous les noms communs : Palmier à vin, Palmier abricot, Palmier vinaigre, Arbre à laque. Mais ces références sont surtout celle du Butia odorata.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Famille des Arecaceae
 Sous-famille des Arecoideae
@@ -546,9 +560,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le stipe est solitaire , gracile, érigé ou incliné, il mesure toujours moins de 35 cm de diamètre et atteint rarement 5 mètres de hauteur. Il est de couleur grise et conserve longtemps la base des pétioles[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le stipe est solitaire , gracile, érigé ou incliné, il mesure toujours moins de 35 cm de diamètre et atteint rarement 5 mètres de hauteur. Il est de couleur grise et conserve longtemps la base des pétioles.
 La couronne comprend 11 à 30 feuilles.
 Les feuilles sont pennées et récurvées. Elles mesurent jusqu'à 1.7 m et sont assez arquées. Les pinnules sont bleutées. Le pétiole est vert, et mesure environ 50 cm à un mètre de longueur. Il est recouvert d'épines filamenteuses.
 Les inflorescences portent des fleurs mâles et femelles.
@@ -582,10 +598,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a longtemps été confondue avec Butia odorata qui est au Sud du Brésil et nord-est de l'Uruguay, dans les savanes à faible altitude où poussent des arbres de faible taille et des hautes herbes et où les sols sont secs, sablonneux et pauvres. Le climat y est subtropical : hivers doux avec de rares gelées, et été chauds.
-Mais le Butia capitata est originaire du centre du Brésil (Minas Gerais) ou le climat est carrément tropical[2].
+Mais le Butia capitata est originaire du centre du Brésil (Minas Gerais) ou le climat est carrément tropical.
 </t>
         </is>
       </c>
@@ -614,7 +632,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses fruits sont consommés crus ou en gelée. On les macère dans l’alcool pour donner le vin de palmier. Ils ont une saveur sucrée, parfois acide. La chair et le goût rappellent la mangue.
 </t>
@@ -645,7 +665,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce palmier est de croissance assez lente. Il supporte assez mal les sols calcaire. Il apprécie les expositions ensoleillées. Il a l'avantage de pouvoir vivre ses premières années en pot.
 C'est un palmier très peu rustique. Il ne résiste pas à des températures négatives ! A l'encontre de B. odorata qui résistera à des températures allant jusqu'à -12C° pour un arbre adulte bien installé, si le froid est bref et le sol sec.
